--- a/archive/InnovateUK_Funding_Opportunities_WeeklyBreakdown_2026-02-16.xlsx
+++ b/archive/InnovateUK_Funding_Opportunities_WeeklyBreakdown_2026-02-16.xlsx
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -7766,7 +7766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8259,26 +8259,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Innovate Funding Service</t>
+          <t>Innovate UK Business Connect</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zero Emission Flight Demonstrator Round 1</t>
+          <t>Inclusive Mobility Challenge: Safe Urban Navigation for People with Access Needs</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2397/overview/752074ec-5f01-46d8-863f-596300a11651</t>
+          <t>https://iuk-business-connect.org.uk/opportunities/inclusive-mobility-challenge-safe-urban-navigation-for-people-with-access-needs/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-02-12 10:40</t>
+          <t>2026-02-16 10:37</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>46065.44444444445</v>
+        <v>46069.44236111111</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -8287,19 +8287,25 @@
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>16/02/2026</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>46069</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Wednesday 1 April 2026 11:00am</t>
+          <t>27/03/2026                              12:00</t>
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>46113.45833333334</v>
+        <v>46108.5</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£500,000</t>
         </is>
       </c>
       <c r="N9" s="2" t="n">
@@ -8317,12 +8323,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
+          <t>Zero Emission Flight Demonstrator Round 1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2395/overview/3d49fbc4-6e09-4dd8-9ac8-8e5f88facd8d</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2397/overview/752074ec-5f01-46d8-863f-596300a11651</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -8344,15 +8350,15 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Wednesday 6 May 2026 11:00am</t>
+          <t>Wednesday 1 April 2026 11:00am</t>
         </is>
       </c>
       <c r="L10" s="2" t="n">
-        <v>46148.45833333334</v>
+        <v>46113.45833333334</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>£1.5 million</t>
+          <t>£5.0 million</t>
         </is>
       </c>
       <c r="N10" s="2" t="n">
@@ -8370,12 +8376,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Advancing innovation in drug and alcohol addiction healthcare</t>
+          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2394/overview/33b56af8-353f-46ac-bb66-a0928731c0fc</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2395/overview/3d49fbc4-6e09-4dd8-9ac8-8e5f88facd8d</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -8405,7 +8411,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>£10.0 million</t>
+          <t>£1.5 million</t>
         </is>
       </c>
       <c r="N11" s="2" t="n">
@@ -8423,21 +8429,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
+          <t>Advancing innovation in drug and alcohol addiction healthcare</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2392/overview/b8b93732-6326-4aed-9af3-334e4cc5ecc0</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2394/overview/33b56af8-353f-46ac-bb66-a0928731c0fc</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-02-13 10:35</t>
+          <t>2026-02-12 10:40</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>46066.44097222222</v>
+        <v>46065.44444444445</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -8450,21 +8456,74 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Wednesday 15 April 2026 11:00am</t>
+          <t>Wednesday 6 May 2026 11:00am</t>
         </is>
       </c>
       <c r="L12" s="2" t="n">
-        <v>46127.45833333334</v>
+        <v>46148.45833333334</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>£1.0 million</t>
+          <t>£10.0 million</t>
         </is>
       </c>
       <c r="N12" s="2" t="n">
         <v>46064</v>
       </c>
       <c r="O12" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2392/overview/b8b93732-6326-4aed-9af3-334e4cc5ecc0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-02-13 10:35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>46066.44097222222</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Wednesday 15 April 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>46127.45833333334</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>£1.0 million</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O13" s="1" t="n">
         <v>46064</v>
       </c>
     </row>
